--- a/draft vnext/NAV Log Calculator - Flight Planner - E6B-like.xlsx
+++ b/draft vnext/NAV Log Calculator - Flight Planner - E6B-like.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/draft vnext/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1097" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B3B9D3F-0AC1-486A-A20A-849611AD18EC}"/>
+  <xr:revisionPtr revIDLastSave="1099" documentId="13_ncr:1_{462FEA56-7C17-431A-9BAA-3E0293AE842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31506D82-CF61-4F8D-975F-496188A78A4E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" activeTab="4" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="818" firstSheet="2" activeTab="4" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -2088,225 +2088,255 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2361,12 +2391,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2442,30 +2466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10669,142 +10669,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="131"/>
-      <c r="E1" s="128" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="E1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="151"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="154" t="s">
+      <c r="N1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="155"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="142" t="s">
+      <c r="O1" s="115"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="100" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="152"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="143"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="101"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="151"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="154" t="s">
+      <c r="N3" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="155"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="146" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="144"/>
-      <c r="S3" s="142" t="s">
+      <c r="R3" s="102"/>
+      <c r="S3" s="100" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="152"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="148"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="112"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="106"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="98" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="140" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="141"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="58" t="s">
         <v>2</v>
       </c>
@@ -10834,7 +10834,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="134"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="62" t="s">
         <v>0</v>
       </c>
@@ -10892,33 +10892,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="121" t="str">
+      <c r="A9" s="129"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="121" t="str">
+      <c r="I9" s="126" t="str">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="121" t="str">
+      <c r="J9" s="127"/>
+      <c r="K9" s="126" t="str">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v/>
       </c>
-      <c r="L9" s="122"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="121" t="str">
+      <c r="N9" s="126" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="122"/>
+      <c r="O9" s="127"/>
       <c r="P9" s="42" t="str">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
         <v/>
@@ -10941,21 +10941,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="53"/>
@@ -10963,33 +10963,33 @@
       <c r="T10" s="52"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="125" t="str">
+      <c r="A11" s="129"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="124" t="str">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="125" t="str">
+      <c r="I11" s="124" t="str">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="127"/>
-      <c r="K11" s="125" t="str">
+      <c r="J11" s="125"/>
+      <c r="K11" s="124" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v/>
       </c>
-      <c r="L11" s="127"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="125" t="str">
+      <c r="N11" s="124" t="str">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="127"/>
+      <c r="O11" s="125"/>
       <c r="P11" s="45" t="str">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
         <v/>
@@ -11012,21 +11012,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="127"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="127"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="44"/>
@@ -11034,33 +11034,33 @@
       <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="121" t="str">
+      <c r="A13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="126" t="str">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="121" t="str">
+      <c r="I13" s="126" t="str">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="121" t="str">
+      <c r="J13" s="127"/>
+      <c r="K13" s="126" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v/>
       </c>
-      <c r="L13" s="122"/>
+      <c r="L13" s="127"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="121" t="str">
+      <c r="N13" s="126" t="str">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="122"/>
+      <c r="O13" s="127"/>
       <c r="P13" s="42" t="str">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
         <v/>
@@ -11083,21 +11083,21 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="118"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="122"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="53"/>
@@ -11105,33 +11105,33 @@
       <c r="T14" s="52"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="125" t="str">
+      <c r="A15" s="129"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="124" t="str">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="125" t="str">
+      <c r="I15" s="124" t="str">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="125" t="str">
+      <c r="J15" s="125"/>
+      <c r="K15" s="124" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v/>
       </c>
-      <c r="L15" s="127"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="125" t="str">
+      <c r="N15" s="124" t="str">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="127"/>
+      <c r="O15" s="125"/>
       <c r="P15" s="45" t="str">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
         <v/>
@@ -11154,21 +11154,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="118"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="127"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="127"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="44"/>
@@ -11176,33 +11176,33 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="121" t="str">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="126" t="str">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="121" t="str">
+      <c r="I17" s="126" t="str">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="121" t="str">
+      <c r="J17" s="127"/>
+      <c r="K17" s="126" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v/>
       </c>
-      <c r="L17" s="122"/>
+      <c r="L17" s="127"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="121" t="str">
+      <c r="N17" s="126" t="str">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="122"/>
+      <c r="O17" s="127"/>
       <c r="P17" s="42" t="str">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
         <v/>
@@ -11225,21 +11225,21 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="122"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="122"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="52"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="53"/>
@@ -11247,33 +11247,33 @@
       <c r="T18" s="52"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="125" t="str">
+      <c r="A19" s="129"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="124" t="str">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="125" t="str">
+      <c r="I19" s="124" t="str">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="127"/>
-      <c r="K19" s="125" t="str">
+      <c r="J19" s="125"/>
+      <c r="K19" s="124" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v/>
       </c>
-      <c r="L19" s="127"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="125" t="str">
+      <c r="N19" s="124" t="str">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="127"/>
+      <c r="O19" s="125"/>
       <c r="P19" s="45" t="str">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
         <v/>
@@ -11296,21 +11296,21 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="127"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="127"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="44"/>
@@ -11318,33 +11318,33 @@
       <c r="T20" s="43"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="121" t="str">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="126" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="121" t="str">
+      <c r="I21" s="126" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="122"/>
-      <c r="K21" s="121" t="str">
+      <c r="J21" s="127"/>
+      <c r="K21" s="126" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="122"/>
+      <c r="L21" s="127"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="121" t="str">
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="122"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -11367,21 +11367,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="122"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="122"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="52"/>
       <c r="R22" s="53"/>
@@ -11389,33 +11389,33 @@
       <c r="T22" s="52"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="125" t="str">
+      <c r="A23" s="129"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="124" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="125" t="str">
+      <c r="I23" s="124" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="127"/>
-      <c r="K23" s="121" t="str">
+      <c r="J23" s="125"/>
+      <c r="K23" s="126" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="127"/>
+      <c r="L23" s="125"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="121" t="str">
+      <c r="N23" s="126" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="127"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="45" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -11438,21 +11438,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="127"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="125"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="127"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="44"/>
@@ -11460,33 +11460,33 @@
       <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="121" t="str">
+      <c r="A25" s="162"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="126" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="121" t="str">
+      <c r="I25" s="126" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="122"/>
-      <c r="K25" s="121" t="str">
+      <c r="J25" s="127"/>
+      <c r="K25" s="126" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="122"/>
+      <c r="L25" s="127"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="121" t="str">
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="122"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -11512,20 +11512,20 @@
       <c r="A26" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="124"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="139"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="124"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="139"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="55"/>
@@ -11533,142 +11533,244 @@
       <c r="T26" s="52"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
-      <c r="O27" s="106">
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+      <c r="O27" s="150">
         <f>SUM(O9:O26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="108">
+      <c r="Q27" s="152">
         <f>SUM(Q9:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="110">
+      <c r="R27" s="154">
         <f>MAX(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="108">
+      <c r="S27" s="152">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
-      <c r="O28" s="107"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="109"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="O28" s="151"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="153"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="99"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="102"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="102"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="102"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="105"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="N11:N12"/>
@@ -11693,120 +11795,18 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -11836,154 +11836,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="130">
+      <c r="B1" s="120">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="E1" s="128" t="s">
+      <c r="C1" s="121"/>
+      <c r="E1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="144">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="102">
         <v>38</v>
       </c>
-      <c r="I1" s="151"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="154" t="s">
+      <c r="N1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="155"/>
-      <c r="P1" s="144">
+      <c r="O1" s="115"/>
+      <c r="P1" s="102">
         <v>3500</v>
       </c>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="142" t="s">
+      <c r="Q1" s="102"/>
+      <c r="R1" s="100" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="152"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="143"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="101"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="144">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="102">
         <v>6.5</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="154" t="s">
+      <c r="N3" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="155"/>
-      <c r="P3" s="144">
+      <c r="O3" s="115"/>
+      <c r="P3" s="102">
         <v>215</v>
       </c>
-      <c r="Q3" s="146" t="s">
+      <c r="Q3" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="144">
+      <c r="R3" s="102">
         <v>17</v>
       </c>
-      <c r="S3" s="142" t="s">
+      <c r="S3" s="100" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="152"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="148"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="112"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="106"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="98" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="140" t="s">
+      <c r="C7" s="132"/>
+      <c r="D7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="141"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="58" t="s">
         <v>2</v>
       </c>
@@ -12013,7 +12013,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="128" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -12073,49 +12073,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="122">
+      <c r="A9" s="129"/>
+      <c r="B9" s="127">
         <v>90</v>
       </c>
-      <c r="C9" s="122">
+      <c r="C9" s="127">
         <v>3500</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="127">
         <v>215</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="127">
         <v>17</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="127">
         <v>-10</v>
       </c>
-      <c r="G9" s="122">
+      <c r="G9" s="127">
         <v>95</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="126">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="126">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="122">
+      <c r="J9" s="127">
         <v>13</v>
       </c>
-      <c r="K9" s="121">
+      <c r="K9" s="126">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="122">
+      <c r="L9" s="127">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="121">
+      <c r="N9" s="126">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="122">
+      <c r="O9" s="127">
         <v>7</v>
       </c>
       <c r="P9" s="93">
@@ -12140,23 +12140,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="53"/>
@@ -12164,49 +12164,49 @@
       <c r="T10" s="52"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="127">
+      <c r="A11" s="129"/>
+      <c r="B11" s="125">
         <v>90</v>
       </c>
-      <c r="C11" s="127">
+      <c r="C11" s="125">
         <v>3500</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="125">
         <v>215</v>
       </c>
-      <c r="E11" s="127">
+      <c r="E11" s="125">
         <v>17</v>
       </c>
-      <c r="F11" s="127">
+      <c r="F11" s="125">
         <v>-10</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="125">
         <v>95</v>
       </c>
-      <c r="H11" s="125">
+      <c r="H11" s="124">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="124">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="127">
+      <c r="J11" s="125">
         <v>13</v>
       </c>
-      <c r="K11" s="125">
+      <c r="K11" s="124">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="127">
+      <c r="L11" s="125">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="125">
+      <c r="N11" s="124">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="127">
+      <c r="O11" s="125">
         <v>8</v>
       </c>
       <c r="P11" s="94">
@@ -12231,23 +12231,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="127"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="127"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="44"/>
@@ -12255,49 +12255,49 @@
       <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="122">
+      <c r="A13" s="129"/>
+      <c r="B13" s="127">
         <v>131</v>
       </c>
-      <c r="C13" s="122">
+      <c r="C13" s="127">
         <v>3500</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="127">
         <v>215</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="127">
         <v>17</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="127">
         <v>-10</v>
       </c>
-      <c r="G13" s="122">
+      <c r="G13" s="127">
         <v>95</v>
       </c>
-      <c r="H13" s="121">
+      <c r="H13" s="126">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="121">
+      <c r="I13" s="126">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="127">
         <v>13</v>
       </c>
-      <c r="K13" s="121">
+      <c r="K13" s="126">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="122">
+      <c r="L13" s="127">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="121">
+      <c r="N13" s="126">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="122">
+      <c r="O13" s="127">
         <v>11</v>
       </c>
       <c r="P13" s="93">
@@ -12322,23 +12322,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="122"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="53"/>
@@ -12346,49 +12346,49 @@
       <c r="T14" s="52"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120">
+      <c r="A15" s="129"/>
+      <c r="B15" s="138">
         <v>131</v>
       </c>
-      <c r="C15" s="120">
+      <c r="C15" s="138">
         <v>3500</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="138">
         <v>215</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="138">
         <v>17</v>
       </c>
-      <c r="F15" s="120">
+      <c r="F15" s="138">
         <v>-10</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="138">
         <v>95</v>
       </c>
-      <c r="H15" s="125">
+      <c r="H15" s="124">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="124">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="127">
+      <c r="J15" s="125">
         <v>13</v>
       </c>
-      <c r="K15" s="125">
+      <c r="K15" s="124">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="127">
+      <c r="L15" s="125">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="125">
+      <c r="N15" s="124">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="127">
+      <c r="O15" s="125">
         <v>8</v>
       </c>
       <c r="P15" s="94">
@@ -12413,23 +12413,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="127"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="127"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="44"/>
@@ -12437,49 +12437,49 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="122">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127">
         <v>131</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="127">
         <v>3500</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="127">
         <v>215</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="127">
         <v>17</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="127">
         <v>-10</v>
       </c>
-      <c r="G17" s="122">
+      <c r="G17" s="127">
         <v>95</v>
       </c>
-      <c r="H17" s="121">
+      <c r="H17" s="126">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="126">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="122">
+      <c r="J17" s="127">
         <v>13</v>
       </c>
-      <c r="K17" s="121">
+      <c r="K17" s="126">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="122">
+      <c r="L17" s="127">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="121">
+      <c r="N17" s="126">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="122">
+      <c r="O17" s="127">
         <v>10</v>
       </c>
       <c r="P17" s="93">
@@ -12504,23 +12504,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="122"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="122"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="52"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="53"/>
@@ -12528,49 +12528,49 @@
       <c r="T18" s="52"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120">
+      <c r="A19" s="129"/>
+      <c r="B19" s="138">
         <v>131</v>
       </c>
-      <c r="C19" s="120">
+      <c r="C19" s="138">
         <v>3500</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="138">
         <v>215</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="138">
         <v>17</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="138">
         <v>-10</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="138">
         <v>95</v>
       </c>
-      <c r="H19" s="125">
+      <c r="H19" s="124">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="124">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="127">
+      <c r="J19" s="125">
         <v>13</v>
       </c>
-      <c r="K19" s="125">
+      <c r="K19" s="124">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="127">
+      <c r="L19" s="125">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="125">
+      <c r="N19" s="124">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="127">
+      <c r="O19" s="125">
         <v>11</v>
       </c>
       <c r="P19" s="94">
@@ -12595,23 +12595,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="127"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="127"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="44"/>
@@ -12619,33 +12619,33 @@
       <c r="T20" s="43"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="121" t="str">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="126" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="121" t="str">
+      <c r="I21" s="126" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="122"/>
-      <c r="K21" s="121" t="str">
+      <c r="J21" s="127"/>
+      <c r="K21" s="126" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="122"/>
+      <c r="L21" s="127"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="121" t="str">
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="122"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="93" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -12668,21 +12668,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="122"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="127"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="122"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="52"/>
       <c r="R22" s="53"/>
@@ -12690,33 +12690,33 @@
       <c r="T22" s="52"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="125" t="str">
+      <c r="A23" s="129"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="124" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="125" t="str">
+      <c r="I23" s="124" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="127"/>
-      <c r="K23" s="121" t="str">
+      <c r="J23" s="125"/>
+      <c r="K23" s="126" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="127"/>
+      <c r="L23" s="125"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="121" t="str">
+      <c r="N23" s="126" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="127"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="94" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -12739,21 +12739,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="127"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="125"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="127"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="44"/>
@@ -12761,33 +12761,33 @@
       <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="121" t="str">
+      <c r="A25" s="162"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="126" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="121" t="str">
+      <c r="I25" s="126" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="122"/>
-      <c r="K25" s="121" t="str">
+      <c r="J25" s="127"/>
+      <c r="K25" s="126" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="122"/>
+      <c r="L25" s="127"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="121" t="str">
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="122"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="93" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -12813,20 +12813,20 @@
       <c r="A26" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="124"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="139"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="124"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="139"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="55"/>
@@ -12834,142 +12834,242 @@
       <c r="T26" s="52"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
-      <c r="O27" s="106">
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+      <c r="O27" s="150">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="108">
+      <c r="Q27" s="152">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="110">
+      <c r="R27" s="154">
         <f>MAX(R9:R26)</f>
         <v>0.65972222222222221</v>
       </c>
-      <c r="S27" s="108">
+      <c r="S27" s="152">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
-      <c r="O28" s="107"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="109"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="O28" s="151"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="153"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="99"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="102"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="102"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="102"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="105"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="B6:L6"/>
     <mergeCell ref="N6:T6"/>
@@ -12994,119 +13094,19 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -13138,156 +13138,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="130">
+      <c r="B1" s="120">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="E1" s="128" t="s">
+      <c r="C1" s="121"/>
+      <c r="E1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="144">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="102">
         <v>38</v>
       </c>
-      <c r="I1" s="151"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="154" t="s">
+      <c r="N1" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="155"/>
-      <c r="P1" s="144">
+      <c r="O1" s="115"/>
+      <c r="P1" s="102">
         <v>3500</v>
       </c>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="142" t="s">
+      <c r="Q1" s="102"/>
+      <c r="R1" s="100" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="133"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="152"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="112"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="143"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="101"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="128" t="s">
+      <c r="E3" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="144">
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="102">
         <v>6.5</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="I3" s="111"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="154" t="s">
+      <c r="N3" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="155"/>
-      <c r="P3" s="144">
+      <c r="O3" s="115"/>
+      <c r="P3" s="102">
         <v>215</v>
       </c>
-      <c r="Q3" s="146" t="s">
+      <c r="Q3" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="144">
+      <c r="R3" s="102">
         <v>17</v>
       </c>
-      <c r="S3" s="142" t="s">
+      <c r="S3" s="100" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="152"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="147"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="148"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="112"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="106"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="98" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="140" t="s">
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="141"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="58" t="s">
         <v>2</v>
       </c>
@@ -13315,7 +13315,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1">
-      <c r="A8" s="134"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="62" t="s">
         <v>0</v>
       </c>
@@ -13373,33 +13373,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="119"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="121" t="str">
+      <c r="A9" s="129"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="126" t="str">
         <f>IF(B9="","",IFERROR(ROUND(MOD(B9+C9,360),0),""))</f>
         <v/>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="121" t="str">
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F9-B9))*(G9/I9)))),0),"")</f>
         <v/>
       </c>
-      <c r="K9" s="121" t="str">
+      <c r="K9" s="126" t="str">
         <f>IFERROR(ROUND(MOD(D9+J9,360),0),"")</f>
         <v/>
       </c>
-      <c r="L9" s="124"/>
+      <c r="L9" s="139"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="121" t="str">
+      <c r="N9" s="126" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="122"/>
+      <c r="O9" s="127"/>
       <c r="P9" s="96" t="str">
         <f>IFERROR(SQRT(I9^2+G9^2-2*I9*G9*COS(RADIANS(F9-B9-J9))),"")</f>
         <v/>
@@ -13422,21 +13422,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="207"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="165"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
       <c r="R10" s="53"/>
@@ -13444,33 +13444,33 @@
       <c r="T10" s="52"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="119"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="125" t="str">
+      <c r="A11" s="129"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="124" t="str">
         <f t="shared" ref="D11" si="0">IF(B11="","",IFERROR(ROUND(MOD(B11+C11,360),0),""))</f>
         <v/>
       </c>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="125" t="str">
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F11-B11))*(G11/I11)))),0),"")</f>
         <v/>
       </c>
-      <c r="K11" s="125" t="str">
+      <c r="K11" s="124" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(ROUND(MOD(D11+J11,360),0),"")</f>
         <v/>
       </c>
-      <c r="L11" s="208"/>
+      <c r="L11" s="166"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="125" t="str">
-        <f t="shared" ref="N11:N26" si="2">IFERROR(MOD(K11+L11,360),"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="127"/>
+      <c r="N11" s="124" t="str">
+        <f t="shared" ref="N11" si="2">IFERROR(MOD(K11+L11,360),"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="125"/>
       <c r="P11" s="95" t="str">
         <f>IFERROR(SQRT(I11^2+G11^2-2*I11*G11*COS(RADIANS(F11-B11-J11))),"")</f>
         <v/>
@@ -13493,21 +13493,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="209"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="167"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="127"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="44"/>
@@ -13515,33 +13515,33 @@
       <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="119"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="121" t="str">
+      <c r="A13" s="129"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="126" t="str">
         <f t="shared" ref="D13" si="4">IF(B13="","",IFERROR(ROUND(MOD(B13+C13,360),0),""))</f>
         <v/>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="121" t="str">
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F13-B13))*(G13/I13)))),0),"")</f>
         <v/>
       </c>
-      <c r="K13" s="121" t="str">
+      <c r="K13" s="126" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(ROUND(MOD(D13+J13,360),0),"")</f>
         <v/>
       </c>
-      <c r="L13" s="124"/>
+      <c r="L13" s="139"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="121" t="str">
-        <f t="shared" ref="N13:N26" si="6">IFERROR(MOD(K13+L13,360),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="122"/>
+      <c r="N13" s="126" t="str">
+        <f t="shared" ref="N13" si="6">IFERROR(MOD(K13+L13,360),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="127"/>
       <c r="P13" s="96" t="str">
         <f>IFERROR(SQRT(I13^2+G13^2-2*I13*G13*COS(RADIANS(F13-B13-J13))),"")</f>
         <v/>
@@ -13564,21 +13564,21 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="118"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="207"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="165"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="122"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="53"/>
@@ -13586,33 +13586,33 @@
       <c r="T14" s="52"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="125" t="str">
+      <c r="A15" s="129"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="124" t="str">
         <f t="shared" ref="D15" si="8">IF(B15="","",IFERROR(ROUND(MOD(B15+C15,360),0),""))</f>
         <v/>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="125" t="str">
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F15-B15))*(G15/I15)))),0),"")</f>
         <v/>
       </c>
-      <c r="K15" s="125" t="str">
+      <c r="K15" s="124" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(ROUND(MOD(D15+J15,360),0),"")</f>
         <v/>
       </c>
-      <c r="L15" s="208"/>
+      <c r="L15" s="166"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="125" t="str">
-        <f t="shared" ref="N15:N26" si="10">IFERROR(MOD(K15+L15,360),"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="127"/>
+      <c r="N15" s="124" t="str">
+        <f t="shared" ref="N15" si="10">IFERROR(MOD(K15+L15,360),"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="125"/>
       <c r="P15" s="95" t="str">
         <f>IFERROR(SQRT(I15^2+G15^2-2*I15*G15*COS(RADIANS(F15-B15-J15))),"")</f>
         <v/>
@@ -13635,21 +13635,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="118"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="209"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="167"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="127"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="44"/>
@@ -13657,33 +13657,33 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="121" t="str">
+      <c r="A17" s="129"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="126" t="str">
         <f t="shared" ref="D17" si="12">IF(B17="","",IFERROR(ROUND(MOD(B17+C17,360),0),""))</f>
         <v/>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="121" t="str">
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F17-B17))*(G17/I17)))),0),"")</f>
         <v/>
       </c>
-      <c r="K17" s="121" t="str">
+      <c r="K17" s="126" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(ROUND(MOD(D17+J17,360),0),"")</f>
         <v/>
       </c>
-      <c r="L17" s="124"/>
+      <c r="L17" s="139"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="121" t="str">
-        <f t="shared" ref="N17:N26" si="14">IFERROR(MOD(K17+L17,360),"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="122"/>
+      <c r="N17" s="126" t="str">
+        <f t="shared" ref="N17" si="14">IFERROR(MOD(K17+L17,360),"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="127"/>
       <c r="P17" s="96" t="str">
         <f>IFERROR(SQRT(I17^2+G17^2-2*I17*G17*COS(RADIANS(F17-B17-J17))),"")</f>
         <v/>
@@ -13706,21 +13706,21 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="207"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="165"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="122"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="52"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="53"/>
@@ -13728,33 +13728,33 @@
       <c r="T18" s="52"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="119"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="125" t="str">
+      <c r="A19" s="129"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="124" t="str">
         <f t="shared" ref="D19" si="16">IF(B19="","",IFERROR(ROUND(MOD(B19+C19,360),0),""))</f>
         <v/>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="125" t="str">
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F19-B19))*(G19/I19)))),0),"")</f>
         <v/>
       </c>
-      <c r="K19" s="125" t="str">
+      <c r="K19" s="124" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(ROUND(MOD(D19+J19,360),0),"")</f>
         <v/>
       </c>
-      <c r="L19" s="208"/>
+      <c r="L19" s="166"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="125" t="str">
-        <f t="shared" ref="N19:N26" si="18">IFERROR(MOD(K19+L19,360),"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="127"/>
+      <c r="N19" s="124" t="str">
+        <f t="shared" ref="N19" si="18">IFERROR(MOD(K19+L19,360),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="125"/>
       <c r="P19" s="95" t="str">
         <f>IFERROR(SQRT(I19^2+G19^2-2*I19*G19*COS(RADIANS(F19-B19-J19))),"")</f>
         <v/>
@@ -13777,21 +13777,21 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="209"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="167"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="127"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="44"/>
@@ -13799,33 +13799,33 @@
       <c r="T20" s="43"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="121" t="str">
+      <c r="A21" s="129"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="126" t="str">
         <f t="shared" ref="D21" si="20">IF(B21="","",IFERROR(ROUND(MOD(B21+C21,360),0),""))</f>
         <v/>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="121" t="str">
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F21-B21))*(G21/I21)))),0),"")</f>
         <v/>
       </c>
-      <c r="K21" s="121" t="str">
+      <c r="K21" s="126" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(ROUND(MOD(D21+J21,360),0),"")</f>
         <v/>
       </c>
-      <c r="L21" s="124"/>
+      <c r="L21" s="139"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="121" t="str">
-        <f t="shared" ref="N21:N26" si="22">IFERROR(MOD(K21+L21,360),"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="122"/>
+      <c r="N21" s="126" t="str">
+        <f t="shared" ref="N21" si="22">IFERROR(MOD(K21+L21,360),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="127"/>
       <c r="P21" s="96" t="str">
         <f>IFERROR(SQRT(I21^2+G21^2-2*I21*G21*COS(RADIANS(F21-B21-J21))),"")</f>
         <v/>
@@ -13848,21 +13848,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="207"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="165"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="122"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="52"/>
       <c r="Q22" s="52"/>
       <c r="R22" s="53"/>
@@ -13870,33 +13870,33 @@
       <c r="T22" s="52"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="119"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="125" t="str">
+      <c r="A23" s="129"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="124" t="str">
         <f t="shared" ref="D23" si="24">IF(B23="","",IFERROR(ROUND(MOD(B23+C23,360),0),""))</f>
         <v/>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="125" t="str">
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F23-B23))*(G23/I23)))),0),"")</f>
         <v/>
       </c>
-      <c r="K23" s="125" t="str">
+      <c r="K23" s="124" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(ROUND(MOD(D23+J23,360),0),"")</f>
         <v/>
       </c>
-      <c r="L23" s="208"/>
+      <c r="L23" s="166"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="125" t="str">
-        <f t="shared" ref="N23:N26" si="26">IFERROR(MOD(K23+L23,360),"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="127"/>
+      <c r="N23" s="124" t="str">
+        <f t="shared" ref="N23" si="26">IFERROR(MOD(K23+L23,360),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="125"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(I23^2+G23^2-2*I23*G23*COS(RADIANS(F23-B23-J23))),"")</f>
         <v/>
@@ -13919,21 +13919,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="209"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="167"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="127"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="44"/>
@@ -13941,33 +13941,33 @@
       <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="121" t="str">
+      <c r="A25" s="162"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="126" t="str">
         <f t="shared" ref="D25" si="28">IF(B25="","",IFERROR(ROUND(MOD(B25+C25,360),0),""))</f>
         <v/>
       </c>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
-      <c r="J25" s="121" t="str">
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(F25-B25))*(G25/I25)))),0),"")</f>
         <v/>
       </c>
-      <c r="K25" s="121" t="str">
+      <c r="K25" s="126" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(ROUND(MOD(D25+J25,360),0),"")</f>
         <v/>
       </c>
-      <c r="L25" s="124"/>
+      <c r="L25" s="139"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="121" t="str">
-        <f t="shared" ref="N25:N26" si="30">IFERROR(MOD(K25+L25,360),"")</f>
-        <v/>
-      </c>
-      <c r="O25" s="122"/>
+      <c r="N25" s="126" t="str">
+        <f t="shared" ref="N25" si="30">IFERROR(MOD(K25+L25,360),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="127"/>
       <c r="P25" s="96" t="str">
         <f>IFERROR(SQRT(I25^2+G25^2-2*I25*G25*COS(RADIANS(F25-B25-J25))),"")</f>
         <v/>
@@ -13993,20 +13993,20 @@
       <c r="A26" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="210"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="164"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="124"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="139"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="55"/>
@@ -14014,130 +14014,256 @@
       <c r="T26" s="52"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
-      <c r="O27" s="106">
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+      <c r="O27" s="150">
         <f>SUM(O9:O26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="108">
+      <c r="Q27" s="152">
         <f>SUM(Q9:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="110">
+      <c r="R27" s="154">
         <f>MAX(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="108">
+      <c r="S27" s="152">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
-      <c r="O28" s="107"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="109"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="161"/>
+      <c r="O28" s="151"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="153"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="99"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="143"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="102"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="146"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="102"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="146"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="102"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="146"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="103"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="105"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="Q27:Q28"/>
     <mergeCell ref="R27:R28"/>
@@ -14162,132 +14288,6 @@
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="K25:K26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14299,7 +14299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E9CF72-E2AB-4BF9-8E99-E6526EBDA021}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
@@ -14321,145 +14321,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="173">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="183">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="174"/>
+      <c r="E1" s="184"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="162" t="s">
+      <c r="G1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="163">
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="168">
         <v>38</v>
       </c>
-      <c r="K1" s="163"/>
+      <c r="K1" s="168"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="177" t="s">
+      <c r="M1" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="179">
+      <c r="N1" s="189">
         <v>3500</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="160" t="s">
+      <c r="O1" s="189"/>
+      <c r="P1" s="169" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="161"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="170"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163">
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="168">
         <v>6.5</v>
       </c>
-      <c r="K3" s="163"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="164" t="s">
+      <c r="M3" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="163">
+      <c r="N3" s="168">
         <v>215</v>
       </c>
-      <c r="O3" s="163"/>
-      <c r="P3" s="167" t="s">
+      <c r="O3" s="168"/>
+      <c r="P3" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="163">
+      <c r="Q3" s="168">
         <v>17</v>
       </c>
-      <c r="R3" s="163"/>
-      <c r="S3" s="160" t="s">
+      <c r="R3" s="168"/>
+      <c r="S3" s="169" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="163"/>
-      <c r="S4" s="161"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="170"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="98" t="s">
         <v>107</v>
       </c>
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="139"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="181"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -14520,7 +14520,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="134"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="32" t="s">
         <v>8</v>
       </c>
@@ -14544,33 +14544,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="121" t="str">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="126" t="str">
         <f>IF(A9="","",IFERROR(ROUND(MOD(A9+B9,360),0),""))</f>
         <v/>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="121" t="str">
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E9-A9))*(F9/H9)))),0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="121" t="str">
+      <c r="J9" s="126" t="str">
         <f>IFERROR(MOD(C9+I9,360),"")</f>
         <v/>
       </c>
-      <c r="K9" s="122"/>
+      <c r="K9" s="127"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="121" t="str">
+      <c r="M9" s="129"/>
+      <c r="N9" s="126" t="str">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="122"/>
+      <c r="O9" s="127"/>
       <c r="P9" s="96" t="str">
         <f>IFERROR(SQRT(H9^2+F9^2-2*H9*F9*COS(RADIANS(E9-A9-I9))),"")</f>
         <v/>
@@ -14593,21 +14593,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="122"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="44"/>
@@ -14615,33 +14615,33 @@
       <c r="T10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="125" t="str">
+      <c r="A11" s="125"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="124" t="str">
         <f>IF(A11="","",IFERROR(ROUND(MOD(A11+B11,360),0),""))</f>
         <v/>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="125" t="str">
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E11-A11))*(F11/H11)))),0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="125" t="str">
+      <c r="J11" s="124" t="str">
         <f t="shared" ref="J11" si="0">IFERROR(MOD(C11+I11,360),"")</f>
         <v/>
       </c>
-      <c r="K11" s="127"/>
+      <c r="K11" s="125"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="125" t="str">
+      <c r="M11" s="129"/>
+      <c r="N11" s="124" t="str">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="127"/>
+      <c r="O11" s="125"/>
       <c r="P11" s="95" t="str">
         <f>IFERROR(SQRT(H11^2+F11^2-2*H11*F11*COS(RADIANS(E11-A11-I11))),"")</f>
         <v/>
@@ -14664,21 +14664,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="127"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="127"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="44"/>
@@ -14686,33 +14686,33 @@
       <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="121" t="str">
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="126" t="str">
         <f>IF(A13="","",IFERROR(ROUND(MOD(A13+B13,360),0),""))</f>
         <v/>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="121" t="str">
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E13-A13))*(F13/H13)))),0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="121" t="str">
+      <c r="J13" s="126" t="str">
         <f t="shared" ref="J13" si="2">IFERROR(MOD(C13+I13,360),"")</f>
         <v/>
       </c>
-      <c r="K13" s="122"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="121" t="str">
+      <c r="M13" s="129"/>
+      <c r="N13" s="126" t="str">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="122"/>
+      <c r="O13" s="127"/>
       <c r="P13" s="96" t="str">
         <f>IFERROR(SQRT(H13^2+F13^2-2*H13*F13*COS(RADIANS(E13-A13-I13))),"")</f>
         <v/>
@@ -14735,21 +14735,21 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="122"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="122"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="44"/>
@@ -14757,33 +14757,33 @@
       <c r="T14" s="43"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="120"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="125" t="str">
+      <c r="A15" s="138"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="124" t="str">
         <f>IF(A15="","",IFERROR(ROUND(MOD(A15+B15,360),0),""))</f>
         <v/>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="125" t="str">
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E15-A15))*(F15/H15)))),0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="125" t="str">
+      <c r="J15" s="124" t="str">
         <f t="shared" ref="J15" si="4">IFERROR(MOD(C15+I15,360),"")</f>
         <v/>
       </c>
-      <c r="K15" s="127"/>
+      <c r="K15" s="125"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="125" t="str">
+      <c r="M15" s="129"/>
+      <c r="N15" s="124" t="str">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="127"/>
+      <c r="O15" s="125"/>
       <c r="P15" s="95" t="str">
         <f>IFERROR(SQRT(H15^2+F15^2-2*H15*F15*COS(RADIANS(E15-A15-I15))),"")</f>
         <v/>
@@ -14806,21 +14806,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="120"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="127"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="125"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="127"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="44"/>
@@ -14828,33 +14828,33 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="121" t="str">
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="126" t="str">
         <f>IF(A17="","",IFERROR(ROUND(MOD(A17+B17,360),0),""))</f>
         <v/>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="121" t="str">
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E17-A17))*(F17/H17)))),0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="121" t="str">
+      <c r="J17" s="126" t="str">
         <f t="shared" ref="J17" si="6">IFERROR(MOD(C17+I17,360),"")</f>
         <v/>
       </c>
-      <c r="K17" s="122"/>
+      <c r="K17" s="127"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="121" t="str">
+      <c r="M17" s="129"/>
+      <c r="N17" s="126" t="str">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="122"/>
+      <c r="O17" s="127"/>
       <c r="P17" s="96" t="str">
         <f>IFERROR(SQRT(H17^2+F17^2-2*H17*F17*COS(RADIANS(E17-A17-I17))),"")</f>
         <v/>
@@ -14877,21 +14877,21 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="122"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="122"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="44"/>
@@ -14899,33 +14899,33 @@
       <c r="T18" s="43"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="120"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="125" t="str">
+      <c r="A19" s="138"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="124" t="str">
         <f>IF(A19="","",IFERROR(ROUND(MOD(A19+B19,360),0),""))</f>
         <v/>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="125" t="str">
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E19-A19))*(F19/H19)))),0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="125" t="str">
+      <c r="J19" s="124" t="str">
         <f t="shared" ref="J19" si="8">IFERROR(MOD(C19+I19,360),"")</f>
         <v/>
       </c>
-      <c r="K19" s="127"/>
+      <c r="K19" s="125"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="125" t="str">
+      <c r="M19" s="129"/>
+      <c r="N19" s="124" t="str">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="127"/>
+      <c r="O19" s="125"/>
       <c r="P19" s="95" t="str">
         <f>IFERROR(SQRT(H19^2+F19^2-2*H19*F19*COS(RADIANS(E19-A19-I19))),"")</f>
         <v/>
@@ -14948,21 +14948,21 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="120"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="127"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="127"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="44"/>
@@ -14970,33 +14970,33 @@
       <c r="T20" s="43"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="121" t="str">
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="126" t="str">
         <f>IF(A21="","",IFERROR(ROUND(MOD(A21+B21,360),0),""))</f>
         <v/>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="121" t="str">
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E21-A21))*(F21/H21)))),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="121" t="str">
+      <c r="J21" s="126" t="str">
         <f t="shared" ref="J21" si="10">IFERROR(MOD(C21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="122"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="121" t="str">
+      <c r="M21" s="129"/>
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="122"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="96" t="str">
         <f>IFERROR(SQRT(H21^2+F21^2-2*H21*F21*COS(RADIANS(E21-A21-I21))),"")</f>
         <v/>
@@ -15019,21 +15019,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="122"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="122"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="44"/>
@@ -15041,33 +15041,33 @@
       <c r="T22" s="43"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="120"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="125" t="str">
+      <c r="A23" s="138"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="124" t="str">
         <f>IF(A23="","",IFERROR(ROUND(MOD(A23+B23,360),0),""))</f>
         <v/>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="125" t="str">
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E23-A23))*(F23/H23)))),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="125" t="str">
+      <c r="J23" s="124" t="str">
         <f t="shared" ref="J23" si="12">IFERROR(MOD(C23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="127"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="125" t="str">
+      <c r="M23" s="129"/>
+      <c r="N23" s="124" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="127"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(H23^2+F23^2-2*H23*F23*COS(RADIANS(E23-A23-I23))),"")</f>
         <v/>
@@ -15090,21 +15090,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="120"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="127"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="127"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="44"/>
@@ -15112,33 +15112,33 @@
       <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="121" t="str">
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="126" t="str">
         <f>IF(A25="","",IFERROR(ROUND(MOD(A25+B25,360),0),""))</f>
         <v/>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="121" t="str">
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E25-A25))*(F25/H25)))),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="121" t="str">
+      <c r="J25" s="126" t="str">
         <f t="shared" ref="J25" si="14">IFERROR(MOD(C25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="122"/>
+      <c r="K25" s="127"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="121" t="str">
+      <c r="M25" s="162"/>
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="122"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="96" t="str">
         <f>IFERROR(SQRT(H25^2+F25^2-2*H25*F25*COS(RADIANS(E25-A25-I25))),"")</f>
         <v/>
@@ -15161,23 +15161,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="121"/>
-      <c r="O26" s="122"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="127"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
       <c r="R26" s="44"/>
@@ -15185,19 +15185,19 @@
       <c r="T26" s="43"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -15220,50 +15220,116 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="105"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="F17:F18"/>
@@ -15288,99 +15354,33 @@
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -15392,7 +15392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18CD585-09BE-4E1F-BA48-778C04B4CE5E}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
@@ -15414,145 +15414,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="173">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="183">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="174"/>
+      <c r="E1" s="184"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="162" t="s">
+      <c r="G1" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="163">
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="168">
         <v>38</v>
       </c>
-      <c r="K1" s="163"/>
+      <c r="K1" s="168"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="177" t="s">
+      <c r="M1" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="179">
+      <c r="N1" s="189">
         <v>3500</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="160" t="s">
+      <c r="O1" s="189"/>
+      <c r="P1" s="169" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="161"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="170"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="162" t="s">
+      <c r="G3" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-      <c r="J3" s="163">
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="168">
         <v>6.5</v>
       </c>
-      <c r="K3" s="163"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="164" t="s">
+      <c r="M3" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="163">
+      <c r="N3" s="168">
         <v>215</v>
       </c>
-      <c r="O3" s="163"/>
-      <c r="P3" s="167" t="s">
+      <c r="O3" s="168"/>
+      <c r="P3" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="163">
+      <c r="Q3" s="168">
         <v>17</v>
       </c>
-      <c r="R3" s="163"/>
-      <c r="S3" s="160" t="s">
+      <c r="R3" s="168"/>
+      <c r="S3" s="169" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="213" t="s">
+      <c r="A4" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="163"/>
-      <c r="S4" s="161"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="170"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="98" t="s">
         <v>107</v>
       </c>
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="139"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="137" t="s">
+      <c r="N6" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="139"/>
+      <c r="O6" s="134"/>
+      <c r="P6" s="134"/>
+      <c r="Q6" s="134"/>
+      <c r="R6" s="134"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="135"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="181"/>
+      <c r="F7" s="172"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -15613,7 +15613,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="134" t="s">
+      <c r="M8" s="128" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -15639,49 +15639,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="122">
+      <c r="A9" s="127">
         <v>90</v>
       </c>
-      <c r="B9" s="122">
+      <c r="B9" s="127">
         <v>13</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="126">
         <f>IF(A9="","",IFERROR(ROUND(MOD(A9+B9,360),0),""))</f>
         <v>103</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="127">
         <v>3500</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="127">
         <v>170</v>
       </c>
-      <c r="F9" s="122">
+      <c r="F9" s="127">
         <v>17</v>
       </c>
-      <c r="G9" s="122">
+      <c r="G9" s="127">
         <v>-10</v>
       </c>
-      <c r="H9" s="122">
+      <c r="H9" s="127">
         <v>95</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="126">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E9-A9))*(F9/H9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="J9" s="121">
+      <c r="J9" s="126">
         <f>IFERROR(MOD(C9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="122">
+      <c r="K9" s="127">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="121">
+      <c r="M9" s="129"/>
+      <c r="N9" s="126">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="122">
+      <c r="O9" s="127">
         <v>7</v>
       </c>
       <c r="P9" s="93">
@@ -15706,23 +15706,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="122"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="127"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="118" t="s">
+      <c r="M10" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
       <c r="P10" s="43"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="44"/>
@@ -15730,49 +15730,49 @@
       <c r="T10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A11" s="127">
+      <c r="A11" s="125">
         <v>90</v>
       </c>
-      <c r="B11" s="127">
+      <c r="B11" s="125">
         <v>13</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="124">
         <f>IF(A11="","",IFERROR(ROUND(MOD(A11+B11,360),0),""))</f>
         <v>103</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="125">
         <v>3500</v>
       </c>
-      <c r="E11" s="127">
+      <c r="E11" s="125">
         <v>215</v>
       </c>
-      <c r="F11" s="127">
+      <c r="F11" s="125">
         <v>17</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="125">
         <v>-10</v>
       </c>
-      <c r="H11" s="127">
+      <c r="H11" s="125">
         <v>95</v>
       </c>
-      <c r="I11" s="125">
+      <c r="I11" s="124">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E11-A11))*(F11/H11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="J11" s="125">
+      <c r="J11" s="124">
         <f t="shared" ref="J11" si="0">IFERROR(MOD(C11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="127">
+      <c r="K11" s="125">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="125">
+      <c r="M11" s="129"/>
+      <c r="N11" s="124">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="127">
+      <c r="O11" s="125">
         <v>8</v>
       </c>
       <c r="P11" s="94">
@@ -15797,23 +15797,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="127"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="125"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="118" t="s">
+      <c r="M12" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="125"/>
-      <c r="O12" s="127"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="125"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="44"/>
@@ -15821,49 +15821,49 @@
       <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A13" s="122">
+      <c r="A13" s="127">
         <v>131</v>
       </c>
-      <c r="B13" s="122">
+      <c r="B13" s="127">
         <v>13</v>
       </c>
-      <c r="C13" s="121">
+      <c r="C13" s="126">
         <f>IF(A13="","",IFERROR(ROUND(MOD(A13+B13,360),0),""))</f>
         <v>144</v>
       </c>
-      <c r="D13" s="122">
+      <c r="D13" s="127">
         <v>3500</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="127">
         <v>215</v>
       </c>
-      <c r="F13" s="122">
+      <c r="F13" s="127">
         <v>17</v>
       </c>
-      <c r="G13" s="122">
+      <c r="G13" s="127">
         <v>-10</v>
       </c>
-      <c r="H13" s="122">
+      <c r="H13" s="127">
         <v>95</v>
       </c>
-      <c r="I13" s="121">
+      <c r="I13" s="126">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E13-A13))*(F13/H13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="J13" s="121">
+      <c r="J13" s="126">
         <f t="shared" ref="J13" si="2">IFERROR(MOD(C13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="122">
+      <c r="K13" s="127">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="121">
+      <c r="M13" s="129"/>
+      <c r="N13" s="126">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="122">
+      <c r="O13" s="127">
         <v>11</v>
       </c>
       <c r="P13" s="93">
@@ -15888,23 +15888,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="122"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="118" t="s">
+      <c r="M14" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="122"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="43"/>
       <c r="R14" s="44"/>
@@ -15912,49 +15912,49 @@
       <c r="T14" s="43"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A15" s="120">
+      <c r="A15" s="138">
         <v>131</v>
       </c>
-      <c r="B15" s="127">
+      <c r="B15" s="125">
         <v>13</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="124">
         <f>IF(A15="","",IFERROR(ROUND(MOD(A15+B15,360),0),""))</f>
         <v>144</v>
       </c>
-      <c r="D15" s="120">
+      <c r="D15" s="138">
         <v>3500</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="138">
         <v>215</v>
       </c>
-      <c r="F15" s="120">
+      <c r="F15" s="138">
         <v>17</v>
       </c>
-      <c r="G15" s="120">
+      <c r="G15" s="138">
         <v>-10</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="138">
         <v>95</v>
       </c>
-      <c r="I15" s="125">
+      <c r="I15" s="124">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E15-A15))*(F15/H15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="J15" s="125">
+      <c r="J15" s="124">
         <f t="shared" ref="J15" si="4">IFERROR(MOD(C15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="127">
+      <c r="K15" s="125">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="125">
+      <c r="M15" s="129"/>
+      <c r="N15" s="124">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="127">
+      <c r="O15" s="125">
         <v>8</v>
       </c>
       <c r="P15" s="94">
@@ -15979,23 +15979,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A16" s="120"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="127"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="125"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="118" t="s">
+      <c r="M16" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="125"/>
-      <c r="O16" s="127"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="125"/>
       <c r="P16" s="43"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="44"/>
@@ -16003,49 +16003,49 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A17" s="122">
+      <c r="A17" s="127">
         <v>131</v>
       </c>
-      <c r="B17" s="122">
+      <c r="B17" s="127">
         <v>13</v>
       </c>
-      <c r="C17" s="121">
+      <c r="C17" s="126">
         <f>IF(A17="","",IFERROR(ROUND(MOD(A17+B17,360),0),""))</f>
         <v>144</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="127">
         <v>3500</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="127">
         <v>215</v>
       </c>
-      <c r="F17" s="122">
+      <c r="F17" s="127">
         <v>17</v>
       </c>
-      <c r="G17" s="122">
+      <c r="G17" s="127">
         <v>-10</v>
       </c>
-      <c r="H17" s="122">
+      <c r="H17" s="127">
         <v>95</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="126">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E17-A17))*(F17/H17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="J17" s="121">
+      <c r="J17" s="126">
         <f t="shared" ref="J17" si="6">IFERROR(MOD(C17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="122">
+      <c r="K17" s="127">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="121">
+      <c r="M17" s="129"/>
+      <c r="N17" s="126">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="122">
+      <c r="O17" s="127">
         <v>10</v>
       </c>
       <c r="P17" s="93">
@@ -16070,23 +16070,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="122"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="118" t="s">
+      <c r="M18" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="121"/>
-      <c r="O18" s="122"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="127"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="44"/>
@@ -16094,49 +16094,49 @@
       <c r="T18" s="43"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A19" s="120">
+      <c r="A19" s="138">
         <v>131</v>
       </c>
-      <c r="B19" s="127">
+      <c r="B19" s="125">
         <v>13</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19" s="124">
         <f>IF(A19="","",IFERROR(ROUND(MOD(A19+B19,360),0),""))</f>
         <v>144</v>
       </c>
-      <c r="D19" s="120">
+      <c r="D19" s="138">
         <v>3500</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="138">
         <v>215</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="138">
         <v>17</v>
       </c>
-      <c r="G19" s="120">
+      <c r="G19" s="138">
         <v>-10</v>
       </c>
-      <c r="H19" s="120">
+      <c r="H19" s="138">
         <v>95</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="124">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E19-A19))*(F19/H19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="J19" s="125">
+      <c r="J19" s="124">
         <f t="shared" ref="J19" si="8">IFERROR(MOD(C19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="127">
+      <c r="K19" s="125">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="125">
+      <c r="M19" s="129"/>
+      <c r="N19" s="124">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="127">
+      <c r="O19" s="125">
         <v>11</v>
       </c>
       <c r="P19" s="94">
@@ -16161,23 +16161,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A20" s="120"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="127"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="118" t="s">
+      <c r="M20" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="125"/>
-      <c r="O20" s="127"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="44"/>
@@ -16185,33 +16185,33 @@
       <c r="T20" s="43"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A21" s="122"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="121" t="str">
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="126" t="str">
         <f>IF(A21="","",IFERROR(ROUND(MOD(A21+B21,360),0),""))</f>
         <v/>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="121" t="str">
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E21-A21))*(F21/H21)))),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="121" t="str">
+      <c r="J21" s="126" t="str">
         <f t="shared" ref="J21" si="10">IFERROR(MOD(C21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="122"/>
+      <c r="K21" s="127"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="121" t="str">
+      <c r="M21" s="129"/>
+      <c r="N21" s="126" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="122"/>
+      <c r="O21" s="127"/>
       <c r="P21" s="93" t="str">
         <f>IFERROR(SQRT(H21^2+F21^2-2*H21*F21*COS(RADIANS(E21-A21-I21))),"")</f>
         <v/>
@@ -16234,21 +16234,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="122"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="127"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="122"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="43"/>
       <c r="R22" s="44"/>
@@ -16256,33 +16256,33 @@
       <c r="T22" s="43"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A23" s="120"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="125" t="str">
+      <c r="A23" s="138"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="124" t="str">
         <f>IF(A23="","",IFERROR(ROUND(MOD(A23+B23,360),0),""))</f>
         <v/>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="125" t="str">
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="124" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E23-A23))*(F23/H23)))),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="125" t="str">
+      <c r="J23" s="124" t="str">
         <f t="shared" ref="J23" si="12">IFERROR(MOD(C23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="127"/>
+      <c r="K23" s="125"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="125" t="str">
+      <c r="M23" s="129"/>
+      <c r="N23" s="124" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="127"/>
+      <c r="O23" s="125"/>
       <c r="P23" s="94" t="str">
         <f>IFERROR(SQRT(H23^2+F23^2-2*H23*F23*COS(RADIANS(E23-A23-I23))),"")</f>
         <v/>
@@ -16305,21 +16305,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A24" s="120"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="125"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="127"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="127"/>
+      <c r="M24" s="130"/>
+      <c r="N24" s="124"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="44"/>
@@ -16327,33 +16327,33 @@
       <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A25" s="122"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="121" t="str">
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="126" t="str">
         <f>IF(A25="","",IFERROR(ROUND(MOD(A25+B25,360),0),""))</f>
         <v/>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="121" t="str">
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="126" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(E25-A25))*(F25/H25)))),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="121" t="str">
+      <c r="J25" s="126" t="str">
         <f t="shared" ref="J25" si="14">IFERROR(MOD(C25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="122"/>
+      <c r="K25" s="127"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="121" t="str">
+      <c r="M25" s="162"/>
+      <c r="N25" s="126" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="122"/>
+      <c r="O25" s="127"/>
       <c r="P25" s="93" t="str">
         <f>IFERROR(SQRT(H25^2+F25^2-2*H25*F25*COS(RADIANS(E25-A25-I25))),"")</f>
         <v/>
@@ -16376,23 +16376,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A26" s="122"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="127"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="121"/>
-      <c r="O26" s="122"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="127"/>
       <c r="P26" s="43"/>
       <c r="Q26" s="43"/>
       <c r="R26" s="44"/>
@@ -16400,19 +16400,19 @@
       <c r="T26" s="43"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="146"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -16435,35 +16435,131 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="105"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="149"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="A6:K6"/>
@@ -16488,114 +16584,18 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -16625,17 +16625,17 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:22" ht="20.25" thickBot="1">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="193"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
       <c r="L2" s="92" t="s">
         <v>98</v>
       </c>
@@ -16650,19 +16650,19 @@
       <c r="H3" s="66"/>
       <c r="I3" s="66"/>
       <c r="J3" s="67"/>
-      <c r="L3" s="182" t="s">
+      <c r="L3" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="200"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="208"/>
     </row>
     <row r="4" spans="2:22" ht="18.75">
       <c r="B4" s="65"/>
@@ -16685,17 +16685,17 @@
       </c>
       <c r="I4" s="68"/>
       <c r="J4" s="67"/>
-      <c r="L4" s="201"/>
-      <c r="M4" s="202"/>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="202"/>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="203"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="211"/>
     </row>
     <row r="5" spans="2:22" ht="18.75">
       <c r="B5" s="65"/>
@@ -16718,17 +16718,17 @@
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="67"/>
-      <c r="L5" s="201"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202"/>
-      <c r="P5" s="202"/>
-      <c r="Q5" s="202"/>
-      <c r="R5" s="202"/>
-      <c r="S5" s="202"/>
-      <c r="T5" s="202"/>
-      <c r="U5" s="202"/>
-      <c r="V5" s="203"/>
+      <c r="L5" s="209"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="210"/>
+      <c r="Q5" s="210"/>
+      <c r="R5" s="210"/>
+      <c r="S5" s="210"/>
+      <c r="T5" s="210"/>
+      <c r="U5" s="210"/>
+      <c r="V5" s="211"/>
     </row>
     <row r="6" spans="2:22" ht="18.75">
       <c r="B6" s="65"/>
@@ -16744,17 +16744,17 @@
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="67"/>
-      <c r="L6" s="201"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="202"/>
-      <c r="Q6" s="202"/>
-      <c r="R6" s="202"/>
-      <c r="S6" s="202"/>
-      <c r="T6" s="202"/>
-      <c r="U6" s="202"/>
-      <c r="V6" s="203"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210"/>
+      <c r="P6" s="210"/>
+      <c r="Q6" s="210"/>
+      <c r="R6" s="210"/>
+      <c r="S6" s="210"/>
+      <c r="T6" s="210"/>
+      <c r="U6" s="210"/>
+      <c r="V6" s="211"/>
     </row>
     <row r="7" spans="2:22" ht="18.75">
       <c r="B7" s="65"/>
@@ -16777,17 +16777,17 @@
       </c>
       <c r="I7" s="68"/>
       <c r="J7" s="67"/>
-      <c r="L7" s="201"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="203"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="210"/>
+      <c r="S7" s="210"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="211"/>
     </row>
     <row r="8" spans="2:22">
       <c r="B8" s="65"/>
@@ -16806,17 +16806,17 @@
       </c>
       <c r="I8" s="68"/>
       <c r="J8" s="67"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="203"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="210"/>
+      <c r="O8" s="210"/>
+      <c r="P8" s="210"/>
+      <c r="Q8" s="210"/>
+      <c r="R8" s="210"/>
+      <c r="S8" s="210"/>
+      <c r="T8" s="210"/>
+      <c r="U8" s="210"/>
+      <c r="V8" s="211"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="65"/>
@@ -16828,66 +16828,66 @@
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="67"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="203"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="210"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="210"/>
+      <c r="T9" s="210"/>
+      <c r="U9" s="210"/>
+      <c r="V9" s="211"/>
     </row>
     <row r="10" spans="2:22" ht="18.75">
       <c r="B10" s="65"/>
-      <c r="C10" s="198" t="s">
+      <c r="C10" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="198"/>
+      <c r="D10" s="206"/>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="67"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="202"/>
-      <c r="N10" s="202"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="202"/>
-      <c r="S10" s="202"/>
-      <c r="T10" s="202"/>
-      <c r="U10" s="202"/>
-      <c r="V10" s="203"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="210"/>
+      <c r="S10" s="210"/>
+      <c r="T10" s="210"/>
+      <c r="U10" s="210"/>
+      <c r="V10" s="211"/>
     </row>
     <row r="11" spans="2:22" ht="19.5" thickBot="1">
       <c r="B11" s="65"/>
-      <c r="C11" s="197">
+      <c r="C11" s="205">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(Wd-HEading))*(Ws/TrueAirSpeed)))),0),"")</f>
         <v>9</v>
       </c>
-      <c r="D11" s="197"/>
+      <c r="D11" s="205"/>
       <c r="E11" s="66"/>
       <c r="F11" s="66"/>
       <c r="G11" s="66"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="67"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="205"/>
-      <c r="S11" s="205"/>
-      <c r="T11" s="205"/>
-      <c r="U11" s="205"/>
-      <c r="V11" s="206"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
+      <c r="P11" s="213"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="213"/>
+      <c r="S11" s="213"/>
+      <c r="T11" s="213"/>
+      <c r="U11" s="213"/>
+      <c r="V11" s="214"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="65"/>
@@ -16945,17 +16945,17 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="2:22" ht="19.5">
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="202" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="196"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="203"/>
+      <c r="H17" s="203"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="204"/>
     </row>
     <row r="18" spans="2:22" ht="15.75" thickBot="1">
       <c r="B18" s="65"/>
@@ -17010,19 +17010,19 @@
       </c>
       <c r="I20" s="66"/>
       <c r="J20" s="67"/>
-      <c r="L20" s="182" t="s">
+      <c r="L20" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="183"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="184"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="192"/>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="65"/>
@@ -17036,17 +17036,17 @@
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="67"/>
-      <c r="L21" s="185"/>
-      <c r="M21" s="186"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="187"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="195"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="65"/>
@@ -17058,17 +17058,17 @@
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="67"/>
-      <c r="L22" s="185"/>
-      <c r="M22" s="186"/>
-      <c r="N22" s="186"/>
-      <c r="O22" s="186"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="186"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="187"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="195"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="65"/>
@@ -17088,17 +17088,17 @@
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="67"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="186"/>
-      <c r="N23" s="186"/>
-      <c r="O23" s="186"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="187"/>
+      <c r="L23" s="193"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="195"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="65"/>
@@ -17118,17 +17118,17 @@
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="67"/>
-      <c r="L24" s="185"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="186"/>
-      <c r="O24" s="186"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="187"/>
+      <c r="L24" s="193"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="195"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="65"/>
@@ -17140,17 +17140,17 @@
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="67"/>
-      <c r="L25" s="185"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="186"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="187"/>
+      <c r="L25" s="193"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="195"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="65"/>
@@ -17162,17 +17162,17 @@
       <c r="H26" s="66"/>
       <c r="I26" s="66"/>
       <c r="J26" s="67"/>
-      <c r="L26" s="185"/>
-      <c r="M26" s="186"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="187"/>
+      <c r="L26" s="193"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="195"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="65"/>
@@ -17184,17 +17184,17 @@
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
       <c r="J27" s="67"/>
-      <c r="L27" s="185"/>
-      <c r="M27" s="186"/>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="187"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="195"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="65"/>
@@ -17206,17 +17206,17 @@
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="67"/>
-      <c r="L28" s="185"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="186"/>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="186"/>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="187"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="194"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="195"/>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="65"/>
@@ -17228,17 +17228,17 @@
       <c r="H29" s="66"/>
       <c r="I29" s="66"/>
       <c r="J29" s="67"/>
-      <c r="L29" s="185"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="186"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="187"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="195"/>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="65"/>
@@ -17250,17 +17250,17 @@
       <c r="H30" s="66"/>
       <c r="I30" s="66"/>
       <c r="J30" s="67"/>
-      <c r="L30" s="185"/>
-      <c r="M30" s="186"/>
-      <c r="N30" s="186"/>
-      <c r="O30" s="186"/>
-      <c r="P30" s="186"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="187"/>
+      <c r="L30" s="193"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="194"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="195"/>
     </row>
     <row r="31" spans="2:22" ht="15.75" thickBot="1">
       <c r="B31" s="65"/>
@@ -17272,17 +17272,17 @@
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="67"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="189"/>
-      <c r="N31" s="189"/>
-      <c r="O31" s="189"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="189"/>
-      <c r="R31" s="189"/>
-      <c r="S31" s="189"/>
-      <c r="T31" s="189"/>
-      <c r="U31" s="189"/>
-      <c r="V31" s="190"/>
+      <c r="L31" s="196"/>
+      <c r="M31" s="197"/>
+      <c r="N31" s="197"/>
+      <c r="O31" s="197"/>
+      <c r="P31" s="197"/>
+      <c r="Q31" s="197"/>
+      <c r="R31" s="197"/>
+      <c r="S31" s="197"/>
+      <c r="T31" s="197"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="198"/>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="65"/>
@@ -17499,7 +17499,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="99" t="s">
         <v>109</v>
       </c>
     </row>
